--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +741,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +773,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,17 +821,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,16 +990,19 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-6000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,16 +1038,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,16 +1420,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1677,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,46 +1741,52 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1805,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,8 +1837,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +1965,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2121,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,46 +2153,52 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2217,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,37 +2249,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,17 +2487,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E70" s="3">
         <v>11200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3066,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3160,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E100" s="3">
         <v>11200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>7200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,8 +714,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,8 +752,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,8 +790,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +828,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,23 +848,25 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>9500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +920,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +958,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +996,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,23 +1013,25 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>12900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1047,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,14 +1062,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1085,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,8 +1105,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,11 +1118,11 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1071,16 +1139,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-2900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1177,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,23 +1215,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1253,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1291,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,23 +1329,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,23 +1367,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1405,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1481,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,8 +1557,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,11 +1574,11 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1455,23 +1595,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1633,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,23 +1671,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,28 +1709,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1752,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1788,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1822,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,8 +1860,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1712,8 +1898,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,20 +1936,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,29 +1968,35 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +2012,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1840,8 +2050,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1872,8 +2088,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1904,8 +2126,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,20 +2202,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,14 +2234,20 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,23 +2278,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,23 +2352,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2386,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2156,20 +2424,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,29 +2456,35 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2500,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2252,8 +2538,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2278,14 +2570,20 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,23 +2690,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,23 +2820,29 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>15200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>11200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2522,8 +2858,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,23 +2896,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,23 +3048,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,28 +3124,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,23 +3167,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3205,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3225,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2861,8 +3259,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,23 +3449,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3487,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3507,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3099,8 +3541,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,8 +3617,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3195,8 +3655,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3675,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3241,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,23 +3823,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F100" s="3">
         <v>15200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>11200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3861,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,23 +3899,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3935,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +721,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +762,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,26 +863,27 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,26 +1041,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1080,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,17 +1092,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1140,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1124,8 +1158,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1179,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,11 +1191,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,26 +1261,29 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1302,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1343,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,26 +1384,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,26 +1425,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1630,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1580,8 +1650,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1601,26 +1671,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,26 +1753,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,31 +1794,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,26 +1876,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +1915,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +1956,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1904,8 +1997,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,23 +2038,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,32 +2073,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E46" s="3">
         <v>14200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2120,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2056,8 +2161,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2202,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2325,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2220,11 +2340,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,14 +2360,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,26 +2407,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,26 +2484,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,8 +2523,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,23 +2564,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2462,32 +2599,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2646,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,8 +2687,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2576,14 +2722,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,26 +2851,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2838,14 +3006,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>15200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>11200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2864,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,26 +3073,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,26 +3237,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E76" s="3">
         <v>11500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,31 +3319,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,26 +3365,29 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3464,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,26 +3669,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3710,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3768,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3661,8 +3891,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,26 +4072,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +4113,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,26 +4154,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4193,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,8 +724,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +768,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +812,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,29 +876,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +962,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1006,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,29 +1067,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-5900</v>
+        <v>6800</v>
       </c>
       <c r="E17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1109,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1092,20 +1121,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,8 +1173,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1161,8 +1194,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1182,8 +1215,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1191,14 +1227,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1259,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,29 +1303,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-6700</v>
       </c>
       <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1347,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1346,8 +1391,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,29 +1435,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-6700</v>
       </c>
       <c r="E26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,29 +1479,32 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-6700</v>
       </c>
       <c r="E27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,8 +1699,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1653,8 +1722,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1674,29 +1743,32 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-6700</v>
       </c>
       <c r="E33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,29 +1831,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-6700</v>
       </c>
       <c r="E35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,34 +1875,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
         <v>23600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2048,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2000,8 +2092,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,26 +2136,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2076,35 +2174,38 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
         <v>24900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2224,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,8 +2268,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2205,8 +2312,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2356,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2444,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2343,11 +2462,11 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,14 +2482,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E54" s="3">
         <v>24900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,29 +2614,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2656,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2567,26 +2700,29 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2602,35 +2738,38 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2788,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,8 +2832,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2725,14 +2870,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3009,14 +3176,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>15200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>11200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3035,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E76" s="3">
         <v>20400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,34 +3510,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,29 +3559,32 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-6700</v>
       </c>
       <c r="E81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3623,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3467,8 +3665,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,29 +3885,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3949,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3771,8 +3991,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4079,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3894,8 +4123,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4143,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,29 +4317,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>14500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>11200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,8 +4361,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,29 +4405,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-3600</v>
       </c>
       <c r="E102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,8 +728,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +822,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,32 +890,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,32 +1094,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1139,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1220,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1197,8 +1231,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1218,26 +1252,29 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1299,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,32 +1346,35 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,8 +1393,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,32 +1487,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,32 +1534,35 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1784,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1725,8 +1795,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1746,32 +1816,35 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1910,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
         <v>20000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2141,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2095,8 +2188,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2139,29 +2235,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2177,38 +2276,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E46" s="3">
         <v>20400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2329,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2271,8 +2376,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2423,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,13 +2564,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2465,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,14 +2605,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E54" s="3">
         <v>20400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,32 +2745,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2790,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2703,29 +2837,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,38 +2878,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,8 +2931,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2835,8 +2978,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2873,14 +3019,17 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3179,14 +3347,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>15200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>11200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,32 +3754,35 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,8 +4309,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,32 +4563,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,8 +732,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +782,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,8 +832,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,35 +904,36 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,35 +1121,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1169,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,26 +1181,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1241,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1257,7 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1234,8 +1268,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1255,29 +1289,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,35 +1389,38 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1439,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,8 +1489,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,35 +1539,38 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,35 +1589,38 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1839,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,7 +1857,7 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1798,8 +1868,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1819,35 +1889,38 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,35 +1989,38 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,40 +2039,43 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,8 +2234,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2191,8 +2284,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,32 +2334,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,41 +2378,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E46" s="3">
         <v>16200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2434,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,8 +2484,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2426,8 +2534,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2473,8 +2584,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,16 +2684,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2588,11 +2708,11 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,14 +2728,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E54" s="3">
         <v>16200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,35 +2876,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2924,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2840,32 +2974,35 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,41 +3018,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2934,8 +3074,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,8 +3124,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3022,14 +3168,17 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,14 +3518,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>15200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>11200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3376,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,40 +3894,43 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,35 +3949,38 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,8 +4021,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +4069,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,35 +4319,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,8 +4391,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4218,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,8 +4539,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4359,8 +4589,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4425,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,35 +4809,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,35 +4909,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>NVCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,8 +736,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,8 +789,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,38 +918,39 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,38 +1148,39 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1199,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,29 +1211,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,8 +1275,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,7 +1294,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1271,8 +1305,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1292,8 +1326,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1301,23 +1338,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1379,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,38 +1432,41 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1485,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,8 +1538,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,38 +1591,41 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,38 +1644,41 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,8 +1909,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +1930,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1871,8 +1941,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1892,38 +1962,41 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,38 +2068,41 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,43 +2121,46 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,38 +2223,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E41" s="3">
         <v>24600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2274,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,8 +2327,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2287,8 +2380,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,35 +2433,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,44 +2480,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E46" s="3">
         <v>24900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,8 +2592,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2537,8 +2645,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2587,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2804,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2698,8 +2818,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2711,11 +2831,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,14 +2851,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,38 +2910,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E54" s="3">
         <v>24900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,38 +3007,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,8 +3058,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2977,35 +3111,38 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3021,44 +3158,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,8 +3217,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3127,8 +3270,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3171,14 +3317,17 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,38 +3482,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,14 +3689,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>15200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>11200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,38 +3768,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,38 +3980,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E76" s="3">
         <v>20300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,43 +4086,46 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,38 +4144,41 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,8 +4220,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4072,8 +4271,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,38 +4536,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,8 +4612,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,8 +4769,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,38 +5055,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>13200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,8 +5108,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,38 +5161,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
